--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mudrock is uneasy about the situation, and Suzuran meets an old man who claims to be "the last of the Winterwisp." GreyThroat's clue doesn't seem to match up, and violence seems inevitable as tensions boil over.
+    <t xml:space="preserve">Mudrock is uneasy about the situation, and Suzuran meets an old man who claims to be 'the last of the Winterwisp.' GreyThroat's clue doesn't seem to match up, and violence seems inevitable as tensions boil over.
 </t>
   </si>
   <si>
